--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_6/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_6/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.532</v>
+        <v>0.584</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.852</v>
+        <v>15.178</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.409</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.006</v>
+        <v>20.622</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.831</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.204</v>
+        <v>4.236</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.449123001469735</v>
+        <v>17.67215137225712</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.25821822811955</v>
+        <v>17.7798329537172</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.83228892405677</v>
+        <v>31.22128069566603</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.7351908125965565</v>
+        <v>4.930792713006781</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.29112736144545</v>
+        <v>22.47355781772703</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.79069533995238</v>
+        <v>27.98192986050958</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.147409873862497</v>
+        <v>9.076395970158188</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>38.70169105613527</v>
+        <v>43.8042102192701</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>43.95807102417835</v>
+        <v>46.22031431034659</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>33.64989446846802</v>
+        <v>17.76865781722126</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>38.68236267501278</v>
+        <v>21.21357654218658</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>42.33386878201179</v>
+        <v>20.9876789682274</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.28814498313813</v>
+        <v>24.55192199339463</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.81135281200865</v>
+        <v>19.80435616393198</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>41.2455556392682</v>
+        <v>43.81583640391723</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>9.032700433683861</v>
+        <v>15.72525390879066</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.99208059010555</v>
+        <v>25.57746453646938</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.93334169681973</v>
+        <v>31.2915922345788</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.404117140153392</v>
+        <v>5.580142232367201</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17.46872783620757</v>
+        <v>14.53102653516978</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.01258688682745</v>
+        <v>18.5203142026728</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-3.110678084478195</v>
+        <v>-0.4854180103005596</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>30.17045747418031</v>
+        <v>20.52353803643571</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>17.28516332988347</v>
+        <v>24.45417914166546</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.76419186176626</v>
+        <v>32.16714625612422</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36.12940229057344</v>
+        <v>34.63881495391917</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8.394246838317176</v>
+        <v>1.035628889003402</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>36.6154944233437</v>
+        <v>37.23952961749451</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>41.11423677898972</v>
+        <v>37.84859432057761</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>13.81090577613894</v>
+        <v>5.475679713354868</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>52.49232008283103</v>
+        <v>53.95700881277676</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>56.58491249784562</v>
+        <v>50.30419965695792</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>51.05169784872603</v>
+        <v>48.12560065090944</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>55.89455554116375</v>
+        <v>52.29187922372876</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>59.37370317133287</v>
+        <v>53.51689553320681</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>26.44280713312293</v>
+        <v>35.43288956850986</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>42.73569069002981</v>
+        <v>50.70011898431072</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>56.84100485686944</v>
+        <v>59.72865266406376</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>20.501869373291</v>
+        <v>23.04166299631979</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>37.23751925421497</v>
+        <v>40.38566857397298</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>42.39778440557687</v>
+        <v>41.29332999924014</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>11.8822525691266</v>
+        <v>7.495153791363109</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35.08017164335396</v>
+        <v>39.74972351858959</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>41.98359310283479</v>
+        <v>40.19689159500003</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>11.63100971852269</v>
+        <v>6.560850659074401</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>49.54461752863569</v>
+        <v>56.36897627602043</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>14.5000366031179</v>
+        <v>7.665003257694099</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>27.70151963342397</v>
+        <v>20.71533904800955</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>34.35351438154584</v>
+        <v>27.03030053353718</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>7.293508134469683</v>
+        <v>0.3327193991471624</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.02954429280236</v>
+        <v>32.66939692727924</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>40.95103988471197</v>
+        <v>36.00637823255965</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>12.69955779804108</v>
+        <v>5.375165198804918</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>51.82123957345085</v>
+        <v>50.11149809920539</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>56.48646339640959</v>
+        <v>53.05806457198345</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>51.52324360477637</v>
+        <v>57.91519501467613</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>56.2814694741574</v>
+        <v>58.8277578600691</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>60.33332170623569</v>
+        <v>63.34458459509942</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>24.11883934910456</v>
+        <v>13.49072393777861</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>41.77159864333696</v>
+        <v>35.50352292418625</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>56.15327919838133</v>
+        <v>48.0295186330903</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>18.08286417296669</v>
+        <v>13.73717545710203</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.4741323194303</v>
+        <v>30.26812915713111</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>41.07157357272298</v>
+        <v>37.86555709338043</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>10.8057078367759</v>
+        <v>4.440033615779438</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.48321472155207</v>
+        <v>27.22518740828927</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>42.06342963847705</v>
+        <v>38.00612250544557</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>10.67011745922992</v>
+        <v>3.228444279329945</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>49.01387903232921</v>
+        <v>45.48157661741475</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>8.656154089837838</v>
+        <v>4.771140057714657</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>20.36893159967537</v>
+        <v>17.40782211463226</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>27.34332047337339</v>
+        <v>27.77718996330058</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-1.096481651337321</v>
+        <v>1.080235985416241</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>25.76587412848885</v>
+        <v>34.18304206013326</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>30.77029103879784</v>
+        <v>41.16538991790766</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>4.028843390884404</v>
+        <v>2.147742621296342</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>41.54122935715853</v>
+        <v>48.99982805232929</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>46.2609035684025</v>
+        <v>55.15720480455091</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>39.39099076383351</v>
+        <v>50.93886854563058</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>44.40086779420524</v>
+        <v>52.37577421178102</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>48.1145660145113</v>
+        <v>60.35577800605965</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>15.80074010241465</v>
+        <v>11.74574972561029</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>30.67176649562894</v>
+        <v>26.33745169689665</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>45.50216445177594</v>
+        <v>50.72077862730947</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>10.18663433072671</v>
+        <v>11.36244745189597</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.14051421168356</v>
+        <v>28.97189685895793</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>31.78447960819451</v>
+        <v>37.53453391207623</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.3226459415686804</v>
+        <v>6.644524048852954</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>21.9523497280028</v>
+        <v>29.9023551543038</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.38769300535767</v>
+        <v>44.13124090860674</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-0.730223033189457</v>
+        <v>2.192562112347336</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>35.74315337448795</v>
+        <v>41.33095538578413</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>39.99659610335594</v>
+        <v>23.97663301927788</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.11559491491716</v>
+        <v>18.92554568405251</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>36.67507475801382</v>
+        <v>33.73372622167548</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>43.29936113457449</v>
+        <v>36.89916402104967</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.266674938514809</v>
+        <v>6.00278564083716</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>32.45149559940507</v>
+        <v>14.57872001559979</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>41.50178981491108</v>
+        <v>24.69231714520936</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>9.804141275395306</v>
+        <v>13.93355793942341</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>26.77686615374643</v>
+        <v>23.07731792481174</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>34.4987040232087</v>
+        <v>33.40693604046596</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-4.337002256046532</v>
+        <v>2.248144047772012</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>21.51383414852942</v>
+        <v>10.6739091137211</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.14960475646338</v>
+        <v>19.49916809722266</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-3.397738635662609</v>
+        <v>-2.251594873495026</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>38.74728063056475</v>
+        <v>23.16945923471249</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>50.91823455117931</v>
+        <v>38.64999301339827</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>44.19430703746909</v>
+        <v>23.92512699226961</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>55.41387428155073</v>
+        <v>39.78152258607273</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>64.31566570412993</v>
+        <v>49.03192317675176</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>11.0941370067349</v>
+        <v>3.633974157461711</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>45.30835931015039</v>
+        <v>19.31960852001557</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>56.66817875426858</v>
+        <v>33.98465742757099</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>58.75837659565403</v>
+        <v>57.65779674688461</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>49.54354233542929</v>
+        <v>60.28232933014472</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>57.53526332312649</v>
+        <v>68.39347386356033</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>63.95839652354308</v>
+        <v>67.45291916325029</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>22.7442923752812</v>
+        <v>25.92221529191213</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>54.59880059534652</v>
+        <v>63.32824300401447</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>62.57248961839755</v>
+        <v>67.02098120511722</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>23.77637009449219</v>
+        <v>28.44421584112485</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>43.74363399355194</v>
+        <v>43.75444957819535</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>50.30302192163981</v>
+        <v>47.08011931670984</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>12.54930530832922</v>
+        <v>9.856834428798951</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.36584084520099</v>
+        <v>46.58465840164413</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>49.89396239219248</v>
+        <v>47.97892903025171</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>14.82111636569805</v>
+        <v>10.71339598974838</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>62.27856356210155</v>
+        <v>69.52384003488881</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>72.98286125903383</v>
+        <v>71.35896373650594</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>70.18386040317661</v>
+        <v>82.5321250878462</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>80.14520490268089</v>
+        <v>84.9398766285335</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>88.89374134746646</v>
+        <v>87.85591728800199</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>31.3568023873524</v>
+        <v>35.85623108999019</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>71.67242339690679</v>
+        <v>81.69539006792004</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>81.56666134882909</v>
+        <v>83.59284212055255</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>59.06405181233185</v>
+        <v>63.08460323208998</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>48.90954114444887</v>
+        <v>48.83464273601595</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>56.89424430830701</v>
+        <v>57.3154016332545</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>64.02845367764442</v>
+        <v>65.31951529294692</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>20.50622289285873</v>
+        <v>13.96574154936575</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>53.99992587970978</v>
+        <v>55.81478118628685</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>62.40290899770348</v>
+        <v>63.27224341519573</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>22.74302287412361</v>
+        <v>17.42236162848132</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>43.51344537944632</v>
+        <v>35.36970373018464</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>50.41085968299685</v>
+        <v>45.14477777021588</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>13.09513087886586</v>
+        <v>6.133030928941803</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>44.78239157386471</v>
+        <v>37.76185935852375</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>51.82716457902866</v>
+        <v>44.95494647133873</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>15.84463069208936</v>
+        <v>5.748070711157606</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>63.9676456843384</v>
+        <v>60.91167727990867</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>75.30334966366645</v>
+        <v>75.42972579742133</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>72.10219036640946</v>
+        <v>74.66370474745675</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>81.90347455922131</v>
+        <v>79.16710079971227</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>91.34889182521299</v>
+        <v>91.14194973238456</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>31.02993065831956</v>
+        <v>19.01657624422956</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>73.29569132500883</v>
+        <v>72.89548970609646</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>83.57586496265066</v>
+        <v>83.02190876903319</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>45.55365840516037</v>
+        <v>59.04651089276668</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>35.46325982833723</v>
+        <v>29.71482083981188</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>43.87942113190766</v>
+        <v>36.38192186002515</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>50.65618589833591</v>
+        <v>49.18166925731526</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>9.802048609351118</v>
+        <v>9.766190804314398</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>40.13199995949988</v>
+        <v>46.66521452605086</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>48.70598409165149</v>
+        <v>59.03523993750845</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>11.73921039670381</v>
+        <v>14.09350463235243</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>30.90608735059241</v>
+        <v>35.31874428589828</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>38.06543860209393</v>
+        <v>46.71781210127722</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-1.303095391884163</v>
+        <v>8.178221720286057</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>27.90369147193837</v>
+        <v>40.53295102779839</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>35.03599702507052</v>
+        <v>51.74824659007538</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.3610705953187967</v>
+        <v>3.917764530424591</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>46.29109313119105</v>
+        <v>57.03205835106876</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>57.90934837433111</v>
+        <v>74.08790170906438</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>53.99289958352198</v>
+        <v>64.23377137196681</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>64.64232298267289</v>
+        <v>70.27309842797365</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>73.72432612801413</v>
+        <v>89.59376238041607</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>16.40407384129063</v>
+        <v>13.68959550395856</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>55.26128803605995</v>
+        <v>64.16578761228131</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>65.88138074871304</v>
+        <v>82.70063665807375</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>5.727299482057788</v>
+        <v>11.05232163661846</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>14.2791685410085</v>
+        <v>11.38670230993248</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>20.57289934524738</v>
+        <v>25.05156823518863</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-2.92636157371566</v>
+        <v>1.473692756428747</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>17.16340994607857</v>
+        <v>15.19988069791075</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>21.60515847204265</v>
+        <v>19.23818713213893</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>2.14399237165722</v>
+        <v>4.453296275675509</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>32.5008926277626</v>
+        <v>33.70583329646001</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>36.20131258802763</v>
+        <v>37.62200630088206</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>26.97626372911337</v>
+        <v>12.98926362219242</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>32.12425722245359</v>
+        <v>16.86569207677619</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>35.78252556262055</v>
+        <v>16.13130332982698</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>6.73275746571821</v>
+        <v>12.36285395500531</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>18.2536197399896</v>
+        <v>12.19291545108563</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.16732960392983</v>
+        <v>30.77497735843987</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>6.247981948817712</v>
+        <v>8.419191132671092</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>19.43096723554711</v>
+        <v>21.85796348807992</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>24.55228259618404</v>
+        <v>25.41271058168733</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-5.218565110020464</v>
+        <v>-0.06623617044594354</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>13.19543346912835</v>
+        <v>10.62100503959398</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>19.56639176578679</v>
+        <v>13.73756220572393</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-3.502148098371801</v>
+        <v>-0.6786803342608358</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>27.75363645199913</v>
+        <v>21.44019388800375</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>12.201077442283</v>
+        <v>19.07967743511335</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>23.2399426871456</v>
+        <v>24.63619337645066</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.43663887374858</v>
+        <v>29.37482136330022</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>4.56154477066428</v>
+        <v>0.2849156240449524</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.67620288812519</v>
+        <v>28.69336213281651</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>32.17211657389551</v>
+        <v>30.54844305173196</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>10.02281528519977</v>
+        <v>3.083192533020057</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>44.27346107793714</v>
+        <v>44.05933049866389</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>46.87990439492766</v>
+        <v>44.03067171259328</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>42.01188009410049</v>
+        <v>36.14718572241011</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>46.99555792840724</v>
+        <v>44.80927659543192</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>50.59907093758095</v>
+        <v>46.70101833307118</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>16.86420848354496</v>
+        <v>18.85580324847076</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>32.94463421194211</v>
+        <v>36.91867610693453</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>42.50124873798205</v>
+        <v>43.02350840981322</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>15.69194592712872</v>
+        <v>16.01054493517749</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>31.44810316024605</v>
+        <v>32.12278583873016</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>35.90911637933583</v>
+        <v>33.67870926017787</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>5.660199447839114</v>
+        <v>0.2785115639716054</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.27589028135489</v>
+        <v>29.43300446796103</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>34.0670485513102</v>
+        <v>32.22839217966172</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>8.488444489105671</v>
+        <v>2.036817478514621</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>44.04653424972071</v>
+        <v>47.15778217826338</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>9.969734918716348</v>
+        <v>3.801214419296141</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>21.6159871336051</v>
+        <v>14.59486264840309</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>27.10572830960815</v>
+        <v>22.8204547341252</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>3.846223626909655</v>
+        <v>-0.3983284435429688</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.4662614219453</v>
+        <v>26.51490414686997</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>32.30544759115554</v>
+        <v>28.75913929263306</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>9.317980368042768</v>
+        <v>4.961184330883075</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>43.93647784026077</v>
+        <v>43.29591405429275</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>47.06773431890909</v>
+        <v>46.32156349119268</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>42.64763174756946</v>
+        <v>44.85482948368858</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>47.53936068403692</v>
+        <v>49.34746967973776</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>51.69249024271202</v>
+        <v>56.32192262368463</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>14.8984585773309</v>
+        <v>1.146799679418738</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>32.3111108280959</v>
+        <v>22.54504592444871</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>42.01228807737552</v>
+        <v>30.57764181601053</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>13.68489119554454</v>
+        <v>8.83644212168516</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>30.00760849313097</v>
+        <v>25.1142138813746</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>34.8740279325541</v>
+        <v>30.89627319517047</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4.816592475632799</v>
+        <v>-0.516851467633952</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>27.9335411124861</v>
+        <v>23.36705879443298</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>34.27978654983913</v>
+        <v>31.19140019669294</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>7.727876693140647</v>
+        <v>1.547950772109324</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>43.64864492570983</v>
+        <v>40.60346894653607</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>4.475313672698555</v>
+        <v>0.07077099944518039</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>14.77945987600198</v>
+        <v>9.629495424662824</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>20.52673749085445</v>
+        <v>22.84656793667433</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-3.920927129040042</v>
+        <v>-1.117537036528081</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>18.86639347805015</v>
+        <v>24.59655425033215</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>22.80700061705835</v>
+        <v>33.5712169899816</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>1.331897819930091</v>
+        <v>-0.06483995107661045</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>34.44098055505934</v>
+        <v>41.27136168338127</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>37.59272512981948</v>
+        <v>47.14610745247172</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>31.47708408160436</v>
+        <v>41.08621747529735</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>36.60922985716619</v>
+        <v>44.99137700396912</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>40.40353978091039</v>
+        <v>51.52387860678559</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>7.248513647485046</v>
+        <v>-1.454318402611282</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>21.99054984081776</v>
+        <v>18.35284242831484</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>32.1671594211805</v>
+        <v>36.39794790510791</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>6.565129626349609</v>
+        <v>4.111735948715197</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>21.59745211306745</v>
+        <v>21.58251966146872</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>26.47158861506054</v>
+        <v>28.13262025710371</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-4.610231107309154</v>
+        <v>-2.060351242902378</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>16.53358146997401</v>
+        <v>20.57723495698104</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>22.7728323078494</v>
+        <v>32.02553300796997</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-2.37987196249281</v>
+        <v>-2.153042538366403</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>31.85279992051756</v>
+        <v>34.87469875628049</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>35.74229914567511</v>
+        <v>26.42073807851036</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>24.38244197332715</v>
+        <v>19.98919711903894</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>33.01104715261807</v>
+        <v>32.1332465320457</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>38.89618505159564</v>
+        <v>34.02244280193543</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>3.626508363686412</v>
+        <v>7.531158219697073</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>27.4595938197812</v>
+        <v>18.16529401950802</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>33.83509624053416</v>
+        <v>25.82784029288622</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>9.741919047454484</v>
+        <v>13.92376790567342</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>26.3652397596635</v>
+        <v>24.81187833700752</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>33.62855753176288</v>
+        <v>34.81111043552513</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-7.194435253034314</v>
+        <v>-3.112532579496207</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>18.7281855462201</v>
+        <v>9.574273999049332</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>25.93932730116874</v>
+        <v>17.144242783212</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-2.763357751299999</v>
+        <v>0.7222888675382961</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>37.64165223371457</v>
+        <v>27.43547825978979</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>47.98271444324529</v>
+        <v>43.37977941175848</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>40.38265501848937</v>
+        <v>27.36210598413945</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>51.12373431077685</v>
+        <v>41.80853680589544</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>59.81902576683701</v>
+        <v>47.63640530264324</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>8.652534190982504</v>
+        <v>8.111293680088789</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>41.69891214766651</v>
+        <v>23.35326460201604</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>48.97053312379128</v>
+        <v>36.61447355570677</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>51.53409868896104</v>
+        <v>53.4074684263059</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>42.728873228135</v>
+        <v>45.94689614129982</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>50.86162160280894</v>
+        <v>55.210541898622</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>56.61530119427014</v>
+        <v>55.77937872625279</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>17.41496174557502</v>
+        <v>16.72313283150614</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>46.5551982911407</v>
+        <v>51.99466104299077</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>51.85604118111036</v>
+        <v>54.08884554742038</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>21.87577863364181</v>
+        <v>25.20931947382557</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>41.32754797736247</v>
+        <v>39.20388886564874</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>47.53925021138747</v>
+        <v>43.69024995673505</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>7.389686686469036</v>
+        <v>2.888363337477344</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>38.13782431756011</v>
+        <v>39.04838385613523</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>44.23961332811119</v>
+        <v>42.9123592534563</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>12.90225653844567</v>
+        <v>7.990892633697964</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>58.32606817793118</v>
+        <v>62.57038117269248</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>67.28683563620626</v>
+        <v>67.87322194390268</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>63.47663732381922</v>
+        <v>70.93797527348742</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>72.994625814491</v>
+        <v>77.78156758847031</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>81.63388213210861</v>
+        <v>81.08858927799</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>26.31857819482842</v>
+        <v>29.44987763604679</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>65.21002977740497</v>
+        <v>71.61742935714736</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>70.96299335869237</v>
+        <v>73.76290976788158</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>51.88560201255044</v>
+        <v>56.75250923281062</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>42.13869070397676</v>
+        <v>40.36618828866509</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>50.2812246971063</v>
+        <v>47.63266723493676</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>56.71692771642668</v>
+        <v>55.36421138079302</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>15.35887236711368</v>
+        <v>8.211651497931292</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>46.06118749860947</v>
+        <v>47.24107506375589</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>51.68600231931484</v>
+        <v>50.33303925136389</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>21.18821420281725</v>
+        <v>15.74547904892711</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>41.35746608729933</v>
+        <v>33.52699957192098</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>47.86963071300033</v>
+        <v>42.22193436061166</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>8.131750169205141</v>
+        <v>0.9510867115256474</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>39.74354682022688</v>
+        <v>36.15698770818035</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>46.22681411508954</v>
+        <v>41.42983594718433</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>14.06670387627169</v>
+        <v>5.798588716849597</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>60.09454821513908</v>
+        <v>59.56593853433759</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>69.59597175140351</v>
+        <v>71.64983518625434</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>65.38676129268902</v>
+        <v>67.91443594081564</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>74.76202669759837</v>
+        <v>73.46840834208102</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>84.03526350092699</v>
+        <v>86.49257780503044</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>26.0984972409813</v>
+        <v>16.14792467728977</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>66.905495195219</v>
+        <v>66.76382012332505</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>72.9047120198102</v>
+        <v>72.51338486051451</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>39.81996577989108</v>
+        <v>49.66591224861143</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>30.12742092850879</v>
+        <v>24.17476967945076</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>38.65639014385984</v>
+        <v>31.94162367647433</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>44.73034223478413</v>
+        <v>38.59936376227796</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>5.871718532680212</v>
+        <v>3.688542522992286</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>33.58667818327801</v>
+        <v>39.33233565706404</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>39.40669238959312</v>
+        <v>47.83634756489338</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>11.02974152272609</v>
+        <v>11.14918643059374</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.73714531762558</v>
+        <v>32.20395010184302</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>36.49243817002416</v>
+        <v>42.99959899299512</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-5.142798973702451</v>
+        <v>0.172392900132909</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>24.09852734701808</v>
+        <v>35.00871981268351</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>30.75932049796453</v>
+        <v>44.62193621786153</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-0.08458374417752168</v>
+        <v>2.037884244896837</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>43.92166480182939</v>
+        <v>55.42744515060397</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>53.6912478497182</v>
+        <v>69.47643587230334</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>48.73657857222228</v>
+        <v>60.05946181141002</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>58.92459466138023</v>
+        <v>67.92021715121551</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>67.84791528508612</v>
+        <v>81.4264901456464</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>12.74576744771738</v>
+        <v>9.846513104626993</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>50.28199848355776</v>
+        <v>62.63744055571273</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>56.66894607285795</v>
+        <v>74.4750113317383</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>9.915409388841626</v>
+        <v>13.41874981061901</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>20.02010738116734</v>
+        <v>14.65016954988734</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.78946942986776</v>
+        <v>28.12587605689672</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>0.4770020108939832</v>
+        <v>2.579110764613578</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>23.94728051926124</v>
+        <v>18.82269374260085</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.61770024948397</v>
+        <v>23.0859260524442</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>4.777576509730736</v>
+        <v>6.585688995404073</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>39.68643661296075</v>
+        <v>41.66901973885152</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>44.22134730974426</v>
+        <v>44.39934402709356</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>33.66889275016348</v>
+        <v>15.29521066369923</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>38.86423377233388</v>
+        <v>20.06261708938537</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>42.36471623165119</v>
+        <v>19.87207140035086</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>14.38196627401415</v>
+        <v>25.29106479354067</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.65919436423491</v>
+        <v>17.38918284413138</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>38.91622289459657</v>
+        <v>34.33517578190244</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>12.20521356732957</v>
+        <v>15.76089707746808</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>27.06519248828774</v>
+        <v>28.52468876806082</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>31.90260799872077</v>
+        <v>33.59415796275497</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>2.268821859924362</v>
+        <v>5.183436106871756</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>22.17278231108426</v>
+        <v>17.00902512708561</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.75900829096556</v>
+        <v>20.34140798822568</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>1.034353633415183</v>
+        <v>0.8457334752608148</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>36.05226268082521</v>
+        <v>26.5442973537213</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>17.63488931360112</v>
+        <v>24.66566996321452</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>30.37818115987881</v>
+        <v>34.62558316607721</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>35.94795676691062</v>
+        <v>36.60696897451338</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>9.401911580584171</v>
+        <v>3.61179929505872</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>37.00885560073716</v>
+        <v>38.76017308984471</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>40.68912491033865</v>
+        <v>39.52880923476791</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>14.20024225015077</v>
+        <v>7.384908711903794</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>53.19366092597031</v>
+        <v>57.72487440660031</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>56.56612822867915</v>
+        <v>53.46252525993056</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>50.61620130270413</v>
+        <v>48.04599379664055</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>55.64110482271433</v>
+        <v>55.2893601590891</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>58.9922772966475</v>
+        <v>56.69949284980971</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>26.16969818678241</v>
+        <v>36.47300177700367</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>42.11782821803553</v>
+        <v>47.22456168823141</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>54.07337386888324</v>
+        <v>51.25576926697349</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>23.16370009694868</v>
+        <v>24.19490496604905</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>40.76884634684619</v>
+        <v>44.48079469388274</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>44.81620552734944</v>
+        <v>44.46705164368219</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>14.91816022150829</v>
+        <v>8.240172638397528</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>39.13329212071979</v>
+        <v>42.96489714090642</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>45.05632788026058</v>
+        <v>43.35907941875234</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>15.0386989116281</v>
+        <v>8.502779618306896</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>54.63496089952176</v>
+        <v>62.89828907548794</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.15682208096415</v>
+        <v>8.670212752388924</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.58173204066231</v>
+        <v>23.93891865773088</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>34.44224808035647</v>
+        <v>29.67642387728712</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>8.56261249186382</v>
+        <v>3.004283891915637</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>36.66645968844503</v>
+        <v>34.81752638539961</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>40.74674239850646</v>
+        <v>37.49956351058132</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>13.38280685220008</v>
+        <v>8.098078888933795</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>52.78006665397589</v>
+        <v>54.96852162720555</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>56.71135940139617</v>
+        <v>56.4484880473294</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>51.29163791646629</v>
+        <v>57.58897143900141</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>56.22404474621472</v>
+        <v>62.46915415731895</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>60.13725987731159</v>
+        <v>67.5978651907883</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>24.12249979821391</v>
+        <v>17.67667001979272</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>41.40878222264008</v>
+        <v>34.521163011078</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>53.61434274710999</v>
+        <v>40.77656572877228</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>20.94373986106853</v>
+        <v>15.72209245611376</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>39.17058722940482</v>
+        <v>35.37259220829398</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>43.63187925078766</v>
+        <v>41.20964273014833</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>13.97688646902107</v>
+        <v>5.690691484932387</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>38.67120692138436</v>
+        <v>31.5457233328059</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>45.20737650458976</v>
+        <v>40.90298028871062</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>14.22069681143665</v>
+        <v>5.856291152569792</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>54.22475637091686</v>
+        <v>53.27213433250501</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>9.23162096805879</v>
+        <v>5.127519270969501</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>21.21687427447906</v>
+        <v>19.79006144162531</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>27.38529997041816</v>
+        <v>29.98873819211575</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>0.1793010088800386</v>
+        <v>2.855673126678159</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>26.44142751218</v>
+        <v>35.80711698281945</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>30.6075742287379</v>
+        <v>42.02771236716355</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>4.708282826608734</v>
+        <v>3.970118923560666</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>42.55191674029979</v>
+        <v>53.29512933078308</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>46.53696954919954</v>
+        <v>58.21299225064832</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>39.28594301023091</v>
+        <v>52.64275064335555</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>44.46745146611169</v>
+        <v>56.82966602991628</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>48.04337556722317</v>
+        <v>64.62917283330781</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>15.84270148345696</v>
+        <v>16.16999522957504</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>30.40244062188849</v>
+        <v>28.24667887021105</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>43.03317225371394</v>
+        <v>44.54623685710939</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>13.27593050097752</v>
+        <v>12.57133289062678</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>30.11941530528277</v>
+        <v>33.31494773594925</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>34.6318392472873</v>
+        <v>40.34290938562513</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>3.831418053274859</v>
+        <v>6.762773484434884</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>26.51188962031105</v>
+        <v>33.3326425810628</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>32.94254689077715</v>
+        <v>46.05367562790613</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>3.210303505834126</v>
+        <v>3.623761723768514</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>41.42042295121828</v>
+        <v>48.10424726061657</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>44.01291924541523</v>
+        <v>30.056298664087</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>32.75262932849731</v>
+        <v>23.32213868960055</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>41.39911825057418</v>
+        <v>38.98803995595605</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>47.55987448953471</v>
+        <v>41.64043112379866</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>11.45442805457162</v>
+        <v>10.48082557421048</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>37.47566666371755</v>
+        <v>22.13032086631177</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>44.63828190464503</v>
+        <v>30.19885756404034</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>12.59407195536079</v>
+        <v>17.44657752326528</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.96481327024046</v>
+        <v>27.46791478535948</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>36.52353805672185</v>
+        <v>37.00611664532967</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-1.944195124960636</v>
+        <v>2.592455052044766</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>24.31886978023138</v>
+        <v>13.1060331347138</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>30.87543578752554</v>
+        <v>20.94181199935269</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-0.5253348904182253</v>
+        <v>-0.2969434075575776</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>42.2982908828682</v>
+        <v>28.39691643806345</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>52.92234751436229</v>
+        <v>43.73488940792144</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>46.6497286864444</v>
+        <v>27.12982321957947</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>57.7690432091234</v>
+        <v>44.36903283170319</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>65.83361180436441</v>
+        <v>50.76357535779613</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>14.58631424855093</v>
+        <v>8.816679247710304</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>48.45927247588931</v>
+        <v>25.74609041515458</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>57.24980235741391</v>
+        <v>38.78046728222904</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>61.94888126372735</v>
+        <v>63.31783893841367</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>53.35579839491412</v>
+        <v>64.22605180286831</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>61.45147953331592</v>
+        <v>73.14514497038184</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>67.42766553527552</v>
+        <v>72.35093693288948</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>27.22415319077162</v>
+        <v>28.79212397845724</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>58.7834338550071</v>
+        <v>68.14746035039441</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>64.8588104031316</v>
+        <v>70.4708378759904</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>25.98786264058867</v>
+        <v>31.08749699258191</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>46.30851125033585</v>
+        <v>47.32118620874441</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>51.70301846702992</v>
+        <v>49.2512050521831</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>14.17098569796345</v>
+        <v>10.03446175197412</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>45.34511048299188</v>
+        <v>47.83399307544703</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>50.76504711791598</v>
+        <v>48.9184672240399</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>16.84506493794417</v>
+        <v>11.38186634716684</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>64.90054277409982</v>
+        <v>73.18826473420343</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>74.04190092885636</v>
+        <v>73.65800873679508</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>71.6673248822911</v>
+        <v>83.30468571776598</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>81.54343090114928</v>
+        <v>87.45317427940363</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>89.46996515190303</v>
+        <v>88.54225419953282</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>34.0086762756001</v>
+        <v>38.28496373060808</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>73.8471806424909</v>
+        <v>83.54853072494197</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>81.15596970252591</v>
+        <v>84.35533340624666</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>62.32307752195388</v>
+        <v>68.0840431643571</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>52.81668086002617</v>
+        <v>53.78289312086262</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>60.90385329187293</v>
+        <v>63.35045058812031</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>67.57392110473162</v>
+        <v>70.87473980201361</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>25.13321735868776</v>
+        <v>19.57397614457309</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>58.28970959655561</v>
+        <v>63.15380112494555</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>64.74832015328428</v>
+        <v>67.37580234723733</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.1378512007937</v>
+        <v>21.18778504653709</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>46.22509304356612</v>
+        <v>40.14446309667395</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>51.93428346240712</v>
+        <v>47.52272020875562</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>14.83191533371857</v>
+        <v>7.028013345777776</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>46.85643794643124</v>
+        <v>40.13061459779541</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>52.73329057619114</v>
+        <v>45.7213591333191</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>17.9887255072741</v>
+        <v>7.629005051820894</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>66.68308175491438</v>
+        <v>66.4274608282613</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>76.40589882393284</v>
+        <v>77.35330100793993</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>73.64077029597621</v>
+        <v>77.23509805015127</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>83.363726349508</v>
+        <v>83.3244499111488</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>91.95939682468708</v>
+        <v>92.29389493167497</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>33.80164788699953</v>
+        <v>25.02475521296642</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>75.5465768790113</v>
+        <v>78.30351474640968</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>83.1944066243685</v>
+        <v>84.27206009805681</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>49.2978030041134</v>
+        <v>63.33892657205305</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>39.83012959624444</v>
+        <v>34.8402740868919</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>48.33917106246147</v>
+        <v>43.24896241328264</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>54.65643754105808</v>
+        <v>54.2450408439122</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>14.81545899258403</v>
+        <v>15.19525902523796</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>44.89220193861444</v>
+        <v>55.34127348063421</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>51.53062385421936</v>
+        <v>63.77746807026912</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>14.42931538892232</v>
+        <v>17.26900646848234</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>33.96722895267264</v>
+        <v>39.63654172277309</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>39.94065302847972</v>
+        <v>48.74987901690702</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>0.8567605432527863</v>
+        <v>8.061836339019337</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>30.45501209925455</v>
+        <v>42.63177087235168</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>36.45713928890253</v>
+        <v>51.72024004529652</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>2.973675736773249</v>
+        <v>4.781107429164749</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>49.54972377573123</v>
+        <v>61.79997200814819</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>59.56981768264674</v>
+        <v>75.38583058903185</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>56.07679906864983</v>
+        <v>67.97158903444324</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>66.63332042434406</v>
+        <v>75.70115359186376</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>74.87060989341639</v>
+        <v>88.98087452822176</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>19.6343698563788</v>
+        <v>19.42303680941727</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>58.05760564378686</v>
+        <v>72.02095678419585</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>66.04608805161575</v>
+        <v>84.61674562540952</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>4.531547577029851</v>
+        <v>11.91181247870537</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>11.25159748326577</v>
+        <v>11.59029599239822</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>16.51570989569251</v>
+        <v>20.54374789064291</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-3.964734255224045</v>
+        <v>1.741457947313354</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>11.20035607380348</v>
+        <v>6.648473803373935</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>15.21832983962069</v>
+        <v>9.849711801402353</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-0.4770917979143299</v>
+        <v>4.181192063010496</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>24.26861312112908</v>
+        <v>21.21410351737251</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>27.48372355934441</v>
+        <v>24.14475656331663</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>20.02154446796261</v>
+        <v>9.346769404480991</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>24.30089585502997</v>
+        <v>12.98675540004337</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>27.94077562443958</v>
+        <v>12.8767018368819</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>3.42295098105976</v>
+        <v>8.393589877633925</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>13.09404144095435</v>
+        <v>9.893497223005348</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>21.86336259878366</v>
+        <v>18.52105092532511</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>5.692071028053197</v>
+        <v>9.388485209948943</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>16.72345749916653</v>
+        <v>19.71036300522143</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>21.59049132793077</v>
+        <v>23.40144347618002</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-4.47012901225666</v>
+        <v>2.369500278952696</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>9.606439854186464</v>
+        <v>7.34905002918309</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15.98537046772465</v>
+        <v>10.70544217005819</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-3.981010700359793</v>
+        <v>1.083836080275528</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.04524110028323</v>
+        <v>14.95117393375777</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>10.62647388085516</v>
+        <v>17.30312383613289</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>19.70327156859411</v>
+        <v>23.17613008224734</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>23.92832370575076</v>
+        <v>24.54027849309772</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>3.182320556345349</v>
+        <v>0.9193275323395476</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.11426244524623</v>
+        <v>21.28141107246834</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.26081382302636</v>
+        <v>23.42882751547255</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>7.000360814174996</v>
+        <v>2.872253636434589</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>35.4292647503832</v>
+        <v>32.95763188353317</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>37.60497221487495</v>
+        <v>32.96431994170533</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>34.15871157611556</v>
+        <v>28.80681353736817</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>38.29872636811464</v>
+        <v>37.24550546385271</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>41.90861658377035</v>
+        <v>39.43651218322574</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>12.98158487937834</v>
+        <v>14.06741529400007</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>26.95718485916849</v>
+        <v>33.17951467131022</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>34.45850857505239</v>
+        <v>35.7134685790525</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>14.57764193006321</v>
+        <v>13.45875558727964</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.03895727101344</v>
+        <v>28.53698165198813</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>32.29410272497961</v>
+        <v>30.7688626971755</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>5.835469993278743</v>
+        <v>2.533081665852787</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>23.83641539287177</v>
+        <v>26.44531937823808</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.70775977853266</v>
+        <v>30.39014580703975</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>7.349303669881442</v>
+        <v>3.497099279107818</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>37.42391028168178</v>
+        <v>41.10774765429784</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>8.544511257153141</v>
+        <v>5.705485469547181</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>18.18247023874223</v>
+        <v>14.70595738806298</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.68698856953435</v>
+        <v>19.77301529552933</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>2.486162578862039</v>
+        <v>1.415520293601421</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>21.87382818794862</v>
+        <v>18.81408835034287</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>25.36768944624365</v>
+        <v>22.31306809516313</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>6.332556703225146</v>
+        <v>6.361624397681265</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>35.09840031757631</v>
+        <v>32.0415503379289</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>37.78083613505393</v>
+        <v>36.02709602295611</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>34.68036629302761</v>
+        <v>34.89781392140415</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>38.7269281021765</v>
+        <v>38.20002247384842</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>42.8712737844237</v>
+        <v>45.58249730627138</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>11.15280586581943</v>
+        <v>3.041244743930175</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>26.32709555331871</v>
+        <v>20.86922824356841</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>33.982788255709</v>
+        <v>24.82213651235532</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>12.63753406447781</v>
+        <v>7.910022588665171</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.61567447060252</v>
+        <v>21.2751619084669</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>31.26971753587629</v>
+        <v>28.42894299283263</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>4.946789792306792</v>
+        <v>1.789061375224701</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>23.39040791687759</v>
+        <v>18.90491204251549</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.81938195284365</v>
+        <v>28.98425425866149</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>6.54831871418026</v>
+        <v>3.306100201865231</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>36.94397689276531</v>
+        <v>32.55216689832164</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>3.32784026277001</v>
+        <v>2.206232316487164</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>11.67955849622997</v>
+        <v>9.704766959688026</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>16.41303782503878</v>
+        <v>19.24496245330241</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-4.882311971212438</v>
+        <v>-0.9276726428761677</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>12.73816565198141</v>
+        <v>14.26451440121994</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>16.29531528750817</v>
+        <v>24.41769511228605</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-1.262820414181185</v>
+        <v>-0.0600538500014558</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>26.014960087109</v>
+        <v>27.26843105008268</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.70334158300262</v>
+        <v>34.33260205852218</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>24.11765220798062</v>
+        <v>28.90709321687117</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.37956576131043</v>
+        <v>31.42386137953749</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>32.16597679158593</v>
+        <v>38.74054107906886</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>3.862917777521147</v>
+        <v>0.2912051609577233</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>16.53475069352844</v>
+        <v>17.36889348011828</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>24.59355890542712</v>
+        <v>27.74335379980376</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>5.944618223850346</v>
+        <v>4.442657477496194</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>18.69186324226135</v>
+        <v>18.1565163319424</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>23.33657541011949</v>
+        <v>25.75390262891346</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-3.903885938662906</v>
+        <v>0.05903979182404484</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>12.65635374374542</v>
+        <v>15.24141952557152</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>18.95019453457131</v>
+        <v>28.58128420601818</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-2.961356812414376</v>
+        <v>-0.4329404726238302</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.80115755194237</v>
+        <v>26.15094603132637</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>30.10925060773004</v>
+        <v>20.32554247546819</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>19.35990251922109</v>
+        <v>16.99930333004712</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>26.74432115119861</v>
+        <v>27.98615888194317</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>32.56824886389239</v>
+        <v>29.40345631175531</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>1.331579856791816</v>
+        <v>4.334411550097837</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>22.11065153271755</v>
+        <v>11.49878941304867</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>27.82467073783279</v>
+        <v>18.30805975381863</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>9.828519691180695</v>
+        <v>14.06593432540098</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>24.08603170794977</v>
+        <v>22.93653870058906</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>30.97802115673261</v>
+        <v>31.63286708594867</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-5.841816106733546</v>
+        <v>-1.371880508876757</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>15.20734390741059</v>
+        <v>6.436642221973244</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>22.14770640274724</v>
+        <v>13.03160166994838</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-2.543626222676785</v>
+        <v>1.657362225128246</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>32.13981220101826</v>
+        <v>20.41533238280577</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>42.08205238412576</v>
+        <v>34.28766791288552</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>35.07891499461961</v>
+        <v>22.81636877048836</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>44.42842674848529</v>
+        <v>36.67097241358951</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>53.60846435010102</v>
+        <v>41.2523554106652</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>7.301339728680208</v>
+        <v>6.774868281594113</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>36.22391409933049</v>
+        <v>18.19592005989744</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>43.12248523117658</v>
+        <v>28.70220264733292</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>45.04183405707234</v>
+        <v>48.60574300107827</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>36.60656395727378</v>
+        <v>40.1738600732301</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>43.55308155452182</v>
+        <v>49.76859318399923</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>49.261475515158</v>
+        <v>50.57014909887828</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>14.3007178078354</v>
+        <v>12.04190630185834</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>40.08589398220536</v>
+        <v>44.31222674124251</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>44.80819947013964</v>
+        <v>48.34297761989048</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>21.41377276203835</v>
+        <v>23.67592038542158</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.34330763860626</v>
+        <v>37.13444586268825</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>44.25165059820861</v>
+        <v>41.58374116454669</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>8.14702526191679</v>
+        <v>5.636776610241984</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>33.70072896163454</v>
+        <v>36.70257545755659</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>39.63763400715659</v>
+        <v>41.30022674089574</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>12.46611378382488</v>
+        <v>10.32075097277699</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>51.87819956135928</v>
+        <v>57.04872024876863</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>60.53221100068846</v>
+        <v>62.53866020903845</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>57.02093014362097</v>
+        <v>65.18850888971967</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>65.22157115164529</v>
+        <v>73.12905735982012</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>74.37229906618469</v>
+        <v>76.83540420794802</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>24.1229224828011</v>
+        <v>27.77539573084364</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>58.55041702566654</v>
+        <v>66.53049190500867</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>64.03167497669997</v>
+        <v>68.85712964735463</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>45.30031605876829</v>
+        <v>51.63004504364454</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>35.90643780674773</v>
+        <v>33.50865585844146</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>42.86453349846266</v>
+        <v>40.09500435697539</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>49.23555825840364</v>
+        <v>48.77863441553795</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>12.30521334418573</v>
+        <v>7.096947392398501</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>39.50299677491399</v>
+        <v>38.90213073159765</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>44.56380027725483</v>
+        <v>44.23828945071691</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>20.74630291889611</v>
+        <v>15.88583308214158</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38.33387009331379</v>
+        <v>31.07891996915685</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>44.54645923116175</v>
+        <v>40.67926883666708</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>8.78770348925844</v>
+        <v>3.399312259286816</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>35.11799227506576</v>
+        <v>31.65321383581594</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>41.45922273492663</v>
+        <v>39.24682970836531</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>13.51018948579601</v>
+        <v>8.283354041837754</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>53.46858314754175</v>
+        <v>52.0241305663524</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>62.67195371915727</v>
+        <v>66.25843320285981</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>58.71445625018471</v>
+        <v>59.7936573413307</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>66.77785231528132</v>
+        <v>65.53385401408843</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>76.55310422986696</v>
+        <v>80.52451455923767</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>23.89572026222969</v>
+        <v>17.66364973294514</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>60.06214525282974</v>
+        <v>59.7700033837812</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>65.80783357137416</v>
+        <v>66.80565670298145</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>33.87722400410572</v>
+        <v>43.56793703576625</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>24.62314511307893</v>
+        <v>18.22735225188135</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>31.92076532717189</v>
+        <v>24.08238744300845</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>37.93594437389552</v>
+        <v>31.77259986593836</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>3.362290485027522</v>
+        <v>2.777255661721988</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>27.752918529874</v>
+        <v>29.99483551867906</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>32.9597195973073</v>
+        <v>39.68245621637682</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>11.12795059859224</v>
+        <v>11.73214227181574</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>27.32425466659922</v>
+        <v>29.39311545818991</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>33.74608977444176</v>
+        <v>40.81049580939528</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-3.766133205443563</v>
+        <v>1.771036677836989</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>20.31506951205736</v>
+        <v>29.15862824297285</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>26.77389218533488</v>
+        <v>40.67148983706721</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>0.1096371075021949</v>
+        <v>3.64866684400792</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>38.12143094514245</v>
+        <v>46.27309833576302</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>47.54500139806056</v>
+        <v>62.32825003957113</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>42.97160464613389</v>
+        <v>50.79720721823877</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>51.78898574451947</v>
+        <v>57.83727964508914</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>61.21935113632156</v>
+        <v>73.22166890788893</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>11.23798888826929</v>
+        <v>10.54582624760401</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>44.33113596195035</v>
+        <v>53.64913284832254</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>50.41171210095434</v>
+        <v>66.39948286593081</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>13.13344290395293</v>
+        <v>19.9273678187144</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>22.87109989786834</v>
+        <v>17.79004621472573</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>30.49116918439501</v>
+        <v>34.39632773749823</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>5.445048450354726</v>
+        <v>9.392481875984302</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>30.53359776774246</v>
+        <v>32.06901747679228</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>35.5002850373798</v>
+        <v>36.12807173988566</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>8.223098952609494</v>
+        <v>11.12528274845718</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>44.67565936210747</v>
+        <v>49.52686364260124</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>49.71850945586216</v>
+        <v>54.36728809414542</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>38.55638668121928</v>
+        <v>19.48884395625579</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>43.81207375277735</v>
+        <v>23.23867720715692</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>47.14041229731706</v>
+        <v>22.96564304191399</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>19.70829077074448</v>
+        <v>31.82702061024651</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>30.32528357135575</v>
+        <v>19.2423166983825</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>46.01945775091276</v>
+        <v>44.33207231302669</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>12.84600430032425</v>
+        <v>19.76238751095068</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>27.11359310655315</v>
+        <v>27.90449415926416</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>32.330442320926</v>
+        <v>35.22924007640989</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>6.587748590872879</v>
+        <v>22.68292519954514</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>25.70744582705591</v>
+        <v>29.45692880574854</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>32.5218717726519</v>
+        <v>32.5042729414679</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>1.203008953870381</v>
+        <v>3.340007657715582</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>36.35794260587592</v>
+        <v>25.44896808879328</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>21.23422005065921</v>
+        <v>29.75904588426424</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>33.71177212250493</v>
+        <v>35.82867016747352</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>40.08073311227653</v>
+        <v>40.85544319133147</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>14.85479533198023</v>
+        <v>9.168546532724189</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>44.22443844146354</v>
+        <v>50.55449311940217</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>48.16303555499567</v>
+        <v>49.51631381554118</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>18.15038741106097</v>
+        <v>10.66889909000391</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>58.84212393231115</v>
+        <v>63.10095200110497</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>62.68438341929148</v>
+        <v>60.62324530529165</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>56.4070949890948</v>
+        <v>56.30014777177593</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>61.48973410610279</v>
+        <v>60.58008834872109</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>64.62691821321037</v>
+        <v>60.67616979738337</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>32.20830543216853</v>
+        <v>47.56639920816933</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>47.68948424677821</v>
+        <v>56.36051089985486</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>62.03976336787024</v>
+        <v>67.1899359722392</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>24.42735505212113</v>
+        <v>26.92259659129209</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>41.5339579227287</v>
+        <v>42.27871963089626</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>45.92542333047952</v>
+        <v>43.6044258900229</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>20.01630329164304</v>
+        <v>23.86030157125763</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>43.532128573631</v>
+        <v>52.67357769750471</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>49.67348785742635</v>
+        <v>50.25292868489367</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>16.06075790897014</v>
+        <v>9.805582390633514</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>55.96509943251396</v>
+        <v>60.21160016452393</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>18.48788517342881</v>
+        <v>13.10053878339033</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.69028040387619</v>
+        <v>24.51545732678848</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>38.35281012700606</v>
+        <v>33.0414546260569</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>13.79829269569612</v>
+        <v>8.057030654917032</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>43.67364728519118</v>
+        <v>45.63402492327015</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>48.04219472192936</v>
+        <v>47.09625159217752</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>17.11566612157087</v>
+        <v>9.725757470917006</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>58.24257081288451</v>
+        <v>59.00518076042876</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>62.66550023439988</v>
+        <v>62.48136911774324</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>56.97737577893102</v>
+        <v>66.1201306043277</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>61.96032905501826</v>
+        <v>67.13535347613596</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>65.67582147017704</v>
+        <v>69.70151646523259</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.9095906413862</v>
+        <v>24.21826587340169</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>46.78052306265758</v>
+        <v>41.40171929003026</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>61.40800259628223</v>
+        <v>54.98734066685763</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>22.04597709348188</v>
+        <v>19.16614985531887</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>39.8046693473604</v>
+        <v>33.49537220955743</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>44.63246713550915</v>
+        <v>40.80266674600759</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>18.96475956530402</v>
+        <v>21.69469134062396</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>42.95836615331458</v>
+        <v>40.74352060312131</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>49.76666665788146</v>
+        <v>48.2861912716371</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>15.16827037308116</v>
+        <v>7.426595162294166</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>55.50137656971816</v>
+        <v>50.78266463446362</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>12.48381529660681</v>
+        <v>8.661375963462469</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>24.16023981778642</v>
+        <v>20.61733847148791</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>31.16045604922882</v>
+        <v>32.92922581193486</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>5.257884885011919</v>
+        <v>7.948818841473116</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>33.23793969211684</v>
+        <v>48.45167639702306</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>37.69051781293314</v>
+        <v>52.19896090589462</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>8.243425318545295</v>
+        <v>6.01448616047708</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>47.74337894307312</v>
+        <v>58.91943166152433</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>52.23045290079905</v>
+        <v>64.77109082169368</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>44.57364876465307</v>
+        <v>61.3715608943962</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>49.81651495340485</v>
+        <v>62.42204594019474</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>53.19153185121405</v>
+        <v>68.6826533234447</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>21.42716212732818</v>
+        <v>20.20337427409104</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>35.43397865332144</v>
+        <v>31.88577342161657</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>50.52227893033484</v>
+        <v>56.07059009279085</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>14.06274662248066</v>
+        <v>15.73618555964602</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>30.3585169142843</v>
+        <v>32.4154289005125</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>35.24247822250176</v>
+        <v>40.31324569648881</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>8.440828265627676</v>
+        <v>23.32002568210421</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>30.35141040861212</v>
+        <v>45.0066260816036</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>37.02681380240492</v>
+        <v>55.43612057520077</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>3.645346490875387</v>
+        <v>5.937999949610138</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>42.08288424502913</v>
+        <v>47.95382112772558</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>44.88562792320542</v>
+        <v>29.64673687478754</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>32.75357845495305</v>
+        <v>20.14519068832128</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>41.27308622906722</v>
+        <v>36.93826513972334</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>47.37678184651814</v>
+        <v>39.86713380872685</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>11.74006674812787</v>
+        <v>12.28517534903124</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>37.49141388990135</v>
+        <v>17.14327582155314</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>45.65476073063579</v>
+        <v>27.78601111198773</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>13.27897993355554</v>
+        <v>17.10014658745124</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>30.10229015406383</v>
+        <v>25.25755604601401</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>36.97218011964991</v>
+        <v>36.01165611103575</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>3.374758939508361</v>
+        <v>20.23576798502763</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.09102209727578</v>
+        <v>27.13514666732478</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>35.65116241246167</v>
+        <v>32.98890470972101</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>0.8743024952932501</v>
+        <v>1.279374281278102</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>44.2721862855707</v>
+        <v>28.94147374559506</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>55.33647143178632</v>
+        <v>44.77175631366921</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>49.14482026315876</v>
+        <v>27.953227670555</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>60.44710831187163</v>
+        <v>45.10250660175932</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>68.36306103615868</v>
+        <v>53.78939341745497</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>16.54222207645823</v>
+        <v>10.51384634769117</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>50.10466752452362</v>
+        <v>23.58226113821982</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>60.59018177064925</v>
+        <v>38.4800541581438</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>63.83091569136777</v>
+        <v>60.39569857793461</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>54.46490495272025</v>
+        <v>61.98103418586184</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>62.41323816252238</v>
+        <v>70.89397454694432</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>68.29706830127415</v>
+        <v>68.5666824948876</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.45548692983201</v>
+        <v>33.08914974204542</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>59.94737959351728</v>
+        <v>65.26850593557248</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>67.01019622150606</v>
+        <v>69.71742587907958</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>27.34825437614872</v>
+        <v>31.27669334931539</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>47.20792948474664</v>
+        <v>44.55762985663692</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>52.86434062916987</v>
+        <v>47.13728792119513</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>20.40104007221566</v>
+        <v>25.67326467487354</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>51.12806030947964</v>
+        <v>58.74084929401994</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>56.54522705603453</v>
+        <v>55.49675571891764</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>19.2074902948355</v>
+        <v>11.9830100708646</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>68.01403109571672</v>
+        <v>71.9718610128305</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>77.54910200635692</v>
+        <v>72.03423453392094</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>75.431886469223</v>
+        <v>85.15769737751621</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>85.44885352569936</v>
+        <v>86.82200388221105</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>93.18562185434575</v>
+        <v>88.56803083512509</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>37.06197584929633</v>
+        <v>42.43764377707716</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>76.77038183141097</v>
+        <v>83.01504981939293</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>85.75538474736574</v>
+        <v>85.17302261725833</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>64.19900689730099</v>
+        <v>66.08358249129896</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>53.89894548490982</v>
+        <v>52.04494158631985</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>61.8261490123902</v>
+        <v>61.17547384570982</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>68.42149462183926</v>
+        <v>66.22426707795036</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>26.25518664505669</v>
+        <v>23.38197428030241</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>59.40327948238857</v>
+        <v>59.96263873628739</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>66.88594967254576</v>
+        <v>66.69874059731723</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>26.40852580774873</v>
+        <v>22.69083275431595</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>47.06269649340863</v>
+        <v>38.12360862726588</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>53.06190461692133</v>
+        <v>46.31518359569883</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>21.02772161349573</v>
+        <v>23.87595794871661</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>52.61787533273097</v>
+        <v>51.01778557230746</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>58.55049778348275</v>
+        <v>53.35651085900807</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>20.36662601971699</v>
+        <v>8.822549165186626</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>69.83314687605449</v>
+        <v>65.31777742296327</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>79.99850353814564</v>
+        <v>76.44736580169295</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>77.48226353145344</v>
+        <v>80.11032224192994</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>87.32599946529244</v>
+        <v>83.22651415475632</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>95.76735507133776</v>
+        <v>91.69877302327548</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>36.83360615219009</v>
+        <v>28.6968625407916</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>78.50714929060038</v>
+        <v>76.98067547545664</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>87.87153194614962</v>
+        <v>85.42848826375089</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>50.54842348372824</v>
+        <v>62.30768509970679</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>40.27543128866422</v>
+        <v>34.73783656176178</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>48.64622668275593</v>
+        <v>41.87592359898094</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>54.8813183134446</v>
+        <v>51.51002889502725</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>15.43130128749269</v>
+        <v>17.34466923400408</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>45.35550710815177</v>
+        <v>52.25615347714411</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>53.01636906161525</v>
+        <v>62.16490856643858</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>15.26799490909109</v>
+        <v>18.18100550565763</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>34.2959262778282</v>
+        <v>38.3777840268889</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>40.563415718393</v>
+        <v>47.52062079097858</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>6.532841126024161</v>
+        <v>25.73806180140831</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>35.61532145895129</v>
+        <v>56.20319419844503</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>41.63461303405025</v>
+        <v>61.68293068279458</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>4.701626627595168</v>
+        <v>6.955015435438266</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>51.95025489192972</v>
+        <v>63.12184931993625</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>62.41119702401883</v>
+        <v>75.21264419563551</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>59.1314630415796</v>
+        <v>73.78182808145739</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>69.84597537636314</v>
+        <v>77.56326626218663</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>77.91251957339301</v>
+        <v>92.30544457490456</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>22.02044434379107</v>
+        <v>22.50060938926871</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>60.23524878080973</v>
+        <v>70.62310026810901</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>69.94653598356837</v>
+        <v>85.76519563524684</v>
       </c>
     </row>
   </sheetData>
